--- a/D04_Selenium/EXE/all_price_information.xlsx
+++ b/D04_Selenium/EXE/all_price_information.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,25 +542,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>US872898AJ06</t>
+          <t>US02209SBE28</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.17</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2023-12-14 16:44</t>
-        </is>
+        <v>102.08</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45275.72777777778</v>
       </c>
       <c r="D2" t="n">
-        <v>2.7</v>
+        <v>-0.44</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8580501746</v>
+        <v>-0.4291845494</v>
       </c>
       <c r="F2" t="n">
-        <v>94.47</v>
+        <v>102.52</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -564,10 +566,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>97.17</v>
+        <v>102.47</v>
       </c>
       <c r="I2" t="n">
-        <v>97.17</v>
+        <v>102.08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="b">
@@ -591,42 +593,42 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>101.39</v>
+        <v>102.52</v>
       </c>
       <c r="R2" t="n">
-        <v>80.95</v>
+        <v>88.51000000000001</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'originalValue': 'USD', 'translations': {'de': 'US-Dollar', 'en': 'U.S. dollar'}}</t>
+          <t>{"originalValue": "USD", "translations": {"de": "US-Dollar", "en": "U.S. dollar"}}</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>200000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>USF2893TAE67</t>
+          <t>US02209SBE28</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.43000000000001</v>
+        <v>102.08</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-12-14 16:44</t>
+          <t>2023-12-15 17:30</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.43</v>
+        <v>-0.44</v>
       </c>
       <c r="E3" t="n">
-        <v>1.4742268041</v>
+        <v>-0.4291845494</v>
       </c>
       <c r="F3" t="n">
-        <v>97</v>
+        <v>102.52</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -634,10 +636,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>98.43000000000001</v>
+        <v>102.47</v>
       </c>
       <c r="I3" t="n">
-        <v>98.43000000000001</v>
+        <v>102.08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="b">
@@ -661,14 +663,14 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.43000000000001</v>
+        <v>102.52</v>
       </c>
       <c r="R3" t="n">
-        <v>85.97</v>
+        <v>88.51000000000001</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'originalValue': 'USD', 'translations': {'de': 'US-Dollar', 'en': 'U.S. dollar'}}</t>
+          <t>{"originalValue": "USD", "translations": {"de": "US-Dollar", "en": "U.S. dollar"}}</t>
         </is>
       </c>
       <c r="T3" t="n">
@@ -682,32 +684,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>102.11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-12-15 21:40</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.3999219665</v>
+      </c>
+      <c r="F4" t="n">
         <v>102.52</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2023-12-15 00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.6328961858</v>
-      </c>
-      <c r="F4" t="n">
-        <v>99.89</v>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>XFRA</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>102.52</v>
+        <v>102.47</v>
       </c>
       <c r="I4" t="n">
-        <v>99.84</v>
+        <v>102.08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="b">
@@ -738,7 +740,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>{'originalValue': 'USD', 'translations': {'de': 'US-Dollar', 'en': 'U.S. dollar'}}</t>
+          <t>{"originalValue": "USD", "translations": {"de": "US-Dollar", "en": "U.S. dollar"}}</t>
         </is>
       </c>
       <c r="T4" t="n">
@@ -748,25 +750,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>US02209SBF92</t>
+          <t>US02209SBE281</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.47</v>
+        <v>102.08</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023-12-15 00:00</t>
+          <t>2023-12-15 17:30</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.39</v>
+        <v>-0.44</v>
       </c>
       <c r="E5" t="n">
-        <v>3.4214775938</v>
+        <v>-0.4291845494</v>
       </c>
       <c r="F5" t="n">
-        <v>99.08</v>
+        <v>102.52</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -777,7 +779,7 @@
         <v>102.47</v>
       </c>
       <c r="I5" t="n">
-        <v>99.61</v>
+        <v>102.08</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="b">
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.47</v>
+        <v>102.52</v>
       </c>
       <c r="R5" t="n">
-        <v>83.87</v>
+        <v>88.51000000000001</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -818,25 +820,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>US05526DBV64</t>
+          <t>US02209SBF92</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.77</v>
+        <v>102.11</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023-12-15 00:00</t>
+          <t>2023-12-15 17:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.35</v>
+        <v>-0.36</v>
       </c>
       <c r="E6" t="n">
-        <v>3.83207504</v>
+        <v>-0.3513223383</v>
       </c>
       <c r="F6" t="n">
-        <v>87.42</v>
+        <v>102.47</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -844,10 +846,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>90.77</v>
+        <v>102.22</v>
       </c>
       <c r="I6" t="n">
-        <v>90.06999999999999</v>
+        <v>102.11</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="b">
@@ -871,14 +873,14 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>91.78</v>
+        <v>102.47</v>
       </c>
       <c r="R6" t="n">
-        <v>74.27</v>
+        <v>83.87</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'originalValue': 'USD', 'translations': {'de': 'US-Dollar', 'en': 'U.S. dollar'}}</t>
+          <t>{"originalValue": "USD", "translations": {"de": "US-Dollar", "en": "U.S. dollar"}}</t>
         </is>
       </c>
       <c r="T6" t="n">
@@ -888,25 +890,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>US30303M8J41</t>
+          <t>US02209SBF92</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.95999999999999</v>
+        <v>102.11</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-12-14 15:03</t>
+          <t>2023-12-15 21:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.09</v>
+        <v>-0.36</v>
       </c>
       <c r="E7" t="n">
-        <v>2.3785137134</v>
+        <v>-0.3513223383</v>
       </c>
       <c r="F7" t="n">
-        <v>87.87</v>
+        <v>102.47</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -914,10 +916,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>89.95999999999999</v>
+        <v>102.22</v>
       </c>
       <c r="I7" t="n">
-        <v>89.95999999999999</v>
+        <v>102.11</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="b">
@@ -941,17 +943,577 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="R7" t="n">
+        <v>83.87</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>{"originalValue": "USD", "translations": {"de": "US-Dollar", "en": "U.S. dollar"}}</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>US02209SBF92</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-12-15 22:00</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>XFRA</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="I8" t="n">
+        <v>102.11</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2023-12-16 00:30</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023-12-15 15:00</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="R8" t="n">
+        <v>83.87</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>{"originalValue": "USD", "translations": {"de": "US-Dollar", "en": "U.S. dollar"}}</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>US02209SBF921</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>102.11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-12-15 17:00</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3513223383</v>
+      </c>
+      <c r="F9" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>XFRA</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>102.22</v>
+      </c>
+      <c r="I9" t="n">
+        <v>102.11</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2023-12-16 00:30</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-12-15 15:00</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="R9" t="n">
+        <v>83.87</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>{'originalValue': 'USD', 'translations': {'de': 'US-Dollar', 'en': 'U.S. dollar'}}</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>US05526DBV64</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.97</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023-12-15 17:00</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2203371157</v>
+      </c>
+      <c r="F10" t="n">
+        <v>90.77</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>XFRA</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>90.97</v>
+      </c>
+      <c r="I10" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2023-12-16 00:30</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023-12-15 15:00</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>91.78</v>
+      </c>
+      <c r="R10" t="n">
+        <v>74.27</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>{"originalValue": "USD", "translations": {"de": "US-Dollar", "en": "U.S. dollar"}}</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>US05526DBV64</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023-12-15 20:01</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0440674231</v>
+      </c>
+      <c r="F11" t="n">
+        <v>90.77</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>XFRA</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>90.97</v>
+      </c>
+      <c r="I11" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2023-12-16 00:30</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-12-15 15:00</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>91.78</v>
+      </c>
+      <c r="R11" t="n">
+        <v>74.27</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>{"originalValue": "USD", "translations": {"de": "US-Dollar", "en": "U.S. dollar"}}</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>US05526DBV641</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>90.97</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2023-12-15 17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2203371157</v>
+      </c>
+      <c r="F12" t="n">
+        <v>90.77</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>XFRA</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>90.97</v>
+      </c>
+      <c r="I12" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2023-12-16 00:30</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-12-15 15:00</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>91.78</v>
+      </c>
+      <c r="R12" t="n">
+        <v>74.27</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>{'originalValue': 'USD', 'translations': {'de': 'US-Dollar', 'en': 'U.S. dollar'}}</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>US30303M8J41</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2023-12-15 15:06</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.6122721209</v>
+      </c>
+      <c r="F13" t="n">
         <v>89.95999999999999</v>
       </c>
-      <c r="R7" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>XFRA</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="I13" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2023-12-16 00:30</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-12-15 15:00</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="R13" t="n">
         <v>74.84</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>{'originalValue': 'USD', 'translations': {'de': 'US-Dollar', 'en': 'U.S. dollar'}}</t>
         </is>
       </c>
-      <c r="T7" t="n">
+      <c r="T13" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>US872898AJ06</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023-12-15 16:12</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.553977565</v>
+      </c>
+      <c r="F14" t="n">
+        <v>97.17</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>XFRA</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2023-12-16 00:30</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-12-15 15:00</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>101.39</v>
+      </c>
+      <c r="R14" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>{'originalValue': 'USD', 'translations': {'de': 'US-Dollar', 'en': 'U.S. dollar'}}</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>USF2893TAE67</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>99.02</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2023-12-15 16:12</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5994107487</v>
+      </c>
+      <c r="F15" t="n">
+        <v>98.43000000000001</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>XFRA</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>99.02</v>
+      </c>
+      <c r="I15" t="n">
+        <v>99.02</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2023-12-16 00:30</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-12-15 15:00</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>99.02</v>
+      </c>
+      <c r="R15" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>{'originalValue': 'USD', 'translations': {'de': 'US-Dollar', 'en': 'U.S. dollar'}}</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
         <v>2000</v>
       </c>
     </row>
